--- a/conference/pagegen/data/aaai-19.xlsx
+++ b/conference/pagegen/data/aaai-19.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12781E11-B734-4FC4-993D-F9C3CAD50448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59C233-E257-4D2C-AFB2-6EB18D25C3B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>The ability of an AI agent to build mental models can open up pathways for manipulating and exploiting the human in the hopes of achieving some greater good. In fact, such behavior does not necessarily require any malicious intent but can rather be borne out of cooperative scenarios. It is also beyond the scope of misinterpretation of intents, as in the case of value alignment problems, and thus can be effectively engineered if desired (i.e. algorithms exist that can optimize such behavior not because models were mispecified but because they were misused). Such techniques pose several unresolved ethical and moral questions with regards to the design of autonomy. In this paper, we illustrate some of these issues in a teaming scenario and investigate how they are perceived by participants in a thought experiment. Finally, we end with a discussion on the moral implications of such behavior from the perspective of the doctor-patient relationship.</t>
   </si>
   <si>
-    <t>AIES 1/27/19 9:50 (Lightning Talk) and 10:00-10:30 (Poster)</t>
+    <t>AIES: Monday 1/27/19 9:50 (Lightning Talk) and 10:00-10:30 (Poster)</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/conference/pagegen/data/aaai-19.xlsx
+++ b/conference/pagegen/data/aaai-19.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59C233-E257-4D2C-AFB2-6EB18D25C3B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C9E22-F44A-BD4F-8277-3F8094D91B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AAAI 2019" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Authors</t>
   </si>
@@ -50,16 +50,85 @@
   </si>
   <si>
     <t>AIES: Monday 1/27/19 9:50 (Lightning Talk) and 10:00-10:30 (Poster)</t>
+  </si>
+  <si>
+    <t>A Unified Framework for Planning in Adversarial and Cooperative Environments</t>
+  </si>
+  <si>
+    <t>Anagha Kulkarni, Siddharth Srivastava and Subbarao Kambhampati</t>
+  </si>
+  <si>
+    <t>https://yochan-lab.github.io/papers/files/papers/anagha-aaai-2019.pdf</t>
+  </si>
+  <si>
+    <t>Users of AI systems may rely upon them to produce plans for
+achieving desired objectives. Such AI systems should be able
+to compute obfuscated plans whose execution in adversarial
+situations protects privacy, as well as legible plans which are
+easy for team members to understand in cooperative situations. We develop a unified framework that addresses these
+dual problems by computing plans with a desired level of
+comprehensibility from the point of view of a partially informed observer. For adversarial settings, our approach produces obfuscated plans with observations that are consistent
+with at least k goals from a set of decoy goals. By slightly
+varying our framework, we present an approach for producing legible plans in cooperative settings such that the observation sequence projected by the plan is consistent with at
+most j goals from a set of confounding goals. In addition, we
+show how the observability of the observer can be controlled
+to either obfuscate or convey the actions in a plan when the
+goal is known to the observer. We present theoretical results
+on the complexity analysis of our approach. We also present
+an empirical evaluation to show the feasibility and usefulness
+of our approaches using IPC domains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAI Technical session (oral) on Thursday 1/31/2019 2:00 - 3:30 and poster on Wednesday 1/30/2019
+PAIR Workshop (oral) on Monday 1/28/2019 4:45 - 5:00 and poster 3:45 - 4:00 </t>
+  </si>
+  <si>
+    <t>Plan-Recognition-Driven Attention Modeling for Visual Recognition</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1812.00301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yantian Zha, Yikang Li, Tianshu Yu, Subbarao Kambhampati, Baoxin Li </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIR Workshop (oral) on Monday 1/28/2019 3:00 - 3:15 and poster 3:45 - 4:00 </t>
+  </si>
+  <si>
+    <t>Human visual recognition of activities or external agents involves an interplay between high-level plan recognition and low-level perception. Given that, a natural question to ask is: can low-level perception be improved by high-level plan recognition? We formulate the problem of leveraging recognized plans to generate better top-down attention maps \cite{gazzaniga2009,baluch2011} to improve the perception performance. We call these top-down attention maps specifically as plan-recognition-driven attention maps. To address this problem, we introduce the Pixel Dynamics Network. Pixel Dynamics Network serves as an observation model, which predicts next states of object points at each pixel location given observation of pixels and pixel-level action feature. This is like internally learning a pixel-level dynamics model. Pixel Dynamics Network is a kind of Convolutional Neural Network (ConvNet), with specially-designed architecture. Therefore, Pixel Dynamics Network could take the advantage of parallel computation of ConvNets, while learning the pixel-level dynamics model. We further prove the equivalence between Pixel Dynamics Network as an observation model, and the belief update in partially observable Markov decision process (POMDP) framework. We evaluate our Pixel Dynamics Network in event recognition tasks. We build an event recognition system, ER-PRN, which takes Pixel Dynamics Network as a subroutine, to recognize events based on observations augmented by plan-recognition-driven attention.</t>
+  </si>
+  <si>
+    <t>Markov Game Modeling of Moving Target Defense for Strategic Detection of Threats in Cloud Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankur Chowdhary*, Sailik Sengupta*, Dijiang Huang, Subbarao Kambhampati </t>
+  </si>
+  <si>
+    <t>AICS Workshop (oral) on Sunday 1/27/2019 9:45 - 10:00</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1812.09660</t>
+  </si>
+  <si>
+    <t>The processing and storage of critical data in large-scale cloud networks necessitate the need for scalable security solutions. It has been shown that deploying all possible security measures incurs a cost on performance by using up valuable computing and networking resources which are the primary selling points for cloud service providers. Thus, there has been a recent interest in developing Moving Target Defense (MTD) mechanisms that helps one optimize the joint objective of maximizing security while ensuring that the impact on performance is minimized. Often, these techniques model the problem of multi-stage attacks by stealthy adversaries as a single-step attack detection game using graph connectivity measures as a heuristic to measure performance, thereby (1) losing out on valuable information that is inherently present in graph-theoretic models designed for large cloud networks, and (2) coming up with certain strategies that have asymmetric impacts on performance. In this work, we leverage knowledge in attack graphs of a cloud network in formulating a zero-sum Markov Game and use the Common Vulnerability Scoring System (CVSS) to come up with meaningful utility values for this game. Then, we show that the optimal strategy of placing detecting mechanisms against an adversary is equivalent to computing the mixed Min-max Equilibrium of the Markov Game. We compare the gains obtained by using our method to other techniques presently used in cloud network security, thereby showing its effectiveness. Finally, we highlight how the method was used for a small real-world cloud system.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,16 +151,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,24 +444,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE9F31-0271-4DD6-92EF-89236D515945}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.19921875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="26.73046875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="37.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="26.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -404,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -421,7 +495,61 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{BFB25E7B-FB26-5041-8963-779BBE7FC9A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/conference/pagegen/data/aaai-19.xlsx
+++ b/conference/pagegen/data/aaai-19.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C9E22-F44A-BD4F-8277-3F8094D91B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB5AF9C-60E7-4870-B8DA-3FFCBA6918B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AAAI 2019" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Authors</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>The ability of an AI agent to build mental models can open up pathways for manipulating and exploiting the human in the hopes of achieving some greater good. In fact, such behavior does not necessarily require any malicious intent but can rather be borne out of cooperative scenarios. It is also beyond the scope of misinterpretation of intents, as in the case of value alignment problems, and thus can be effectively engineered if desired (i.e. algorithms exist that can optimize such behavior not because models were mispecified but because they were misused). Such techniques pose several unresolved ethical and moral questions with regards to the design of autonomy. In this paper, we illustrate some of these issues in a teaming scenario and investigate how they are perceived by participants in a thought experiment. Finally, we end with a discussion on the moral implications of such behavior from the perspective of the doctor-patient relationship.</t>
-  </si>
-  <si>
-    <t>AIES: Monday 1/27/19 9:50 (Lightning Talk) and 10:00-10:30 (Poster)</t>
   </si>
   <si>
     <t>A Unified Framework for Planning in Adversarial and Cooperative Environments</t>
@@ -111,6 +108,24 @@
   </si>
   <si>
     <t>The processing and storage of critical data in large-scale cloud networks necessitate the need for scalable security solutions. It has been shown that deploying all possible security measures incurs a cost on performance by using up valuable computing and networking resources which are the primary selling points for cloud service providers. Thus, there has been a recent interest in developing Moving Target Defense (MTD) mechanisms that helps one optimize the joint objective of maximizing security while ensuring that the impact on performance is minimized. Often, these techniques model the problem of multi-stage attacks by stealthy adversaries as a single-step attack detection game using graph connectivity measures as a heuristic to measure performance, thereby (1) losing out on valuable information that is inherently present in graph-theoretic models designed for large cloud networks, and (2) coming up with certain strategies that have asymmetric impacts on performance. In this work, we leverage knowledge in attack graphs of a cloud network in formulating a zero-sum Markov Game and use the Common Vulnerability Scoring System (CVSS) to come up with meaningful utility values for this game. Then, we show that the optimal strategy of placing detecting mechanisms against an adversary is equivalent to computing the mixed Min-max Equilibrium of the Markov Game. We compare the gains obtained by using our method to other techniques presently used in cloud network security, thereby showing its effectiveness. Finally, we highlight how the method was used for a small real-world cloud system.</t>
+  </si>
+  <si>
+    <t>Zoo of Interpretable Behavior</t>
+  </si>
+  <si>
+    <t>AIES: Sunday 1/27/19 9:50 (Lightning Talk) and 10:00-10:30 (Poster)</t>
+  </si>
+  <si>
+    <t>Invited Talk at PAIR Workshop (Monday) 1/28/19 4:00-4:45</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1811.09722</t>
+  </si>
+  <si>
+    <t>There has been increasing interest in the generation of behavior that is "understandable" or "interpretable" by an observer. In the Robotics and Planning communities, various notions have been introduced and investigated, including Explicability, Legibility, Predictability, Transparency, Privacy, Security, and Obfuscation. Not surprisingly, many of these notions are also related to goal and plan recognition. However, it is not always clear exactly how these notions relate to each other, or what assumptions are being made about the domain model and computational capabilities of the agent and observer. In this talk, I will attempt to impose some order on this zoo, by presenting a formal taxonomy of different forms of interpretability and un-interpretability. I will also point out some interesting variations and combinations that have not yet been considered or explored.</t>
+  </si>
+  <si>
+    <t>David E. Smith (joint work with with Tathagata Chakraborti, Anagha Kulkarni, Sarath Sreedharan, and Subbarao Kambhampati)</t>
   </si>
 </sst>
 </file>
@@ -444,24 +459,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE9F31-0271-4DD6-92EF-89236D515945}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1328125" style="1" customWidth="1"/>
     <col min="6" max="8" width="26.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -478,78 +493,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{BFB25E7B-FB26-5041-8963-779BBE7FC9A9}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{BFB25E7B-FB26-5041-8963-779BBE7FC9A9}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{1207F1A7-FB59-47CD-86AB-104802663917}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/conference/pagegen/data/aaai-19.xlsx
+++ b/conference/pagegen/data/aaai-19.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB5AF9C-60E7-4870-B8DA-3FFCBA6918B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53234348-CBBA-413E-BAA9-F17025053E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Authors</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>David E. Smith (joint work with with Tathagata Chakraborti, Anagha Kulkarni, Sarath Sreedharan, and Subbarao Kambhampati)</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>ZDNet[HEADER]https://www.zdnet.com/article/should-ai-bots-lie/[DELIM]ACM News[HEADER]https://www.acm.org/media-center/2019/january/aies-2019</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE9F31-0271-4DD6-92EF-89236D515945}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -476,7 +482,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,25 +498,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -526,25 +535,28 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -561,29 +573,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{BFB25E7B-FB26-5041-8963-779BBE7FC9A9}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{1207F1A7-FB59-47CD-86AB-104802663917}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{BFB25E7B-FB26-5041-8963-779BBE7FC9A9}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{1207F1A7-FB59-47CD-86AB-104802663917}"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.zdnet.com/article/should-ai-bots-lie/[DELIM]https://www.acm.org/media-center/2019/january/aies-2019" xr:uid="{EA9F8B19-B1A4-4B63-9961-18106FB7382F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/conference/pagegen/data/aaai-19.xlsx
+++ b/conference/pagegen/data/aaai-19.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53234348-CBBA-413E-BAA9-F17025053E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D61D821-E572-427C-B3AD-2B6067476AB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Authors</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>ZDNet[HEADER]https://www.zdnet.com/article/should-ai-bots-lie/[DELIM]ACM News[HEADER]https://www.acm.org/media-center/2019/january/aies-2019</t>
+  </si>
+  <si>
+    <t>arXiv Daily | DeepAI[HEADER]https://twitter.com/arXiv_Daily/status/1079017322973671424</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -518,6 +521,9 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
